--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (LJR).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (LJR).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Navn</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>Anders møde for PTE</t>
+  </si>
+  <si>
+    <t>Kundemøde med Team1 om UC1</t>
   </si>
 </sst>
 </file>
@@ -114,8 +120,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -139,9 +149,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -498,6 +512,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (LJR).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (LJR).xlsx
@@ -426,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (LJR).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (LJR).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15040"/>
+    <workbookView xWindow="12800" yWindow="-20" windowWidth="12800" windowHeight="15040"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsregistrering" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Navn</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Kundemøde med Team1 om UC1</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af OC-1 på klassen og resten af OC-1</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -540,6 +543,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>42060</v>
+      </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (LJR).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (LJR).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Navn</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Udarbejdelse af OC-1 på klassen og resten af OC-1</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af Brugertest af UC2</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -509,7 +512,7 @@
         <v>0.15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -550,11 +553,20 @@
       <c r="B8">
         <v>2.5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="7"/>
       <c r="D8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>42060</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
